--- a/config_Release/zajindan_service.xlsx
+++ b/config_Release/zajindan_service.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="2625" windowWidth="25605" windowHeight="16065" tabRatio="793"/>
+    <workbookView xWindow="-27645" yWindow="2625" windowWidth="25605" windowHeight="16065" tabRatio="793" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hammer" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>id|</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>大金猪</t>
-  </si>
-  <si>
-    <t>zjd_icon12</t>
   </si>
   <si>
     <t>"jindan_Particle_H",6,4</t>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t>cs_mode_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_normal|图片</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjd_icon20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -801,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -952,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -963,19 +972,19 @@
     <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="5" customWidth="1"/>
     <col min="3" max="4" width="31.125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.75" style="5" customWidth="1"/>
-    <col min="8" max="9" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="54.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="35" style="5" customWidth="1"/>
-    <col min="13" max="13" width="108.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="28.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="5"/>
+    <col min="5" max="7" width="27.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="5" customWidth="1"/>
+    <col min="9" max="10" width="12.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="54.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="35" style="5" customWidth="1"/>
+    <col min="14" max="14" width="108.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" customHeight="1">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,32 +1001,35 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="43.5" customHeight="1">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">J2*10000</f>
+        <f t="shared" ref="B2:B14" si="0">K2*10000</f>
         <v>50</v>
       </c>
       <c r="C2" s="2">
@@ -1029,25 +1041,28 @@
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>0.3</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="43.5" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1062,27 +1077,28 @@
         <v>2000</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>0.3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>0.02</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" ht="43.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1097,27 +1113,28 @@
         <v>1000</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
         <v>0.4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>0.3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <v>0.04</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="43.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1132,27 +1149,28 @@
         <v>1000</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>0.4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>0.3</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>0.05</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="25.5" customHeight="1">
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="25.5" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1167,25 +1185,26 @@
         <v>1000</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.4</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>0.3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1">
+    <row r="7" spans="1:18" ht="21" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1200,25 +1219,26 @@
         <v>500</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="H7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>0.3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18">
+    <row r="8" spans="1:18" ht="18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1233,25 +1253,26 @@
         <v>400</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>0.4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J8" s="7">
         <v>0.3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18">
+    <row r="9" spans="1:18" ht="18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1266,26 +1287,27 @@
         <v>300</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>0.4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>0.3</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" ref="J9:J13" si="1">J8</f>
+      <c r="K9" s="8">
+        <f t="shared" ref="K9:K13" si="1">K8</f>
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18">
+    <row r="10" spans="1:18" ht="18">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1300,26 +1322,27 @@
         <v>200</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>0.4</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J10" s="7">
         <v>0.3</v>
       </c>
-      <c r="J10" s="8">
-        <f>J8</f>
+      <c r="K10" s="8">
+        <f>K8</f>
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18">
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1334,25 +1357,26 @@
         <v>200</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
         <v>0.4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="J11" s="7">
         <v>0.3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18">
+    <row r="12" spans="1:18" ht="18">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1367,26 +1391,27 @@
         <v>100</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7">
         <v>0.4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="7">
         <v>0.3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18">
+    <row r="13" spans="1:18" ht="18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1401,26 +1426,27 @@
         <v>100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.4</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>0.3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1435,20 +1461,21 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
         <v>0.4</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>0.3</v>
       </c>
-      <c r="J14" s="8">
-        <f>(1-SUM(J2:J13))</f>
+      <c r="K14" s="8">
+        <f>(1-SUM(K2:K13))</f>
         <v>0.25600000000000012</v>
       </c>
     </row>
@@ -1481,19 +1508,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1501,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15">
         <v>1554339600</v>
@@ -1518,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="14">
         <v>1556499600</v>
@@ -1562,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1582,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4">
         <v>18</v>
@@ -1599,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -1616,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -1633,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
@@ -2475,7 +2502,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config_Release/zajindan_service.xlsx
+++ b/config_Release/zajindan_service.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="2625" windowWidth="25605" windowHeight="16065" tabRatio="793" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="793" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="hammer" sheetId="3" r:id="rId1"/>
@@ -21,12 +16,7 @@
     <sheet name="award_power3|奖励权重3" sheetId="7" r:id="rId7"/>
     <sheet name="award_power4|奖励权重4" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -45,165 +35,79 @@
     <t>replace_money|换一批需要的钱</t>
   </si>
   <si>
+    <t>egg_open_rate|蛋碎率,%</t>
+  </si>
+  <si>
     <t>replace_egg_return_factor|换蛋的钱的因子返出%</t>
   </si>
   <si>
     <t>replace_egg_upgrade_rate|换蛋时升级蛋的概率%</t>
   </si>
   <si>
-    <t>award_power1</t>
-  </si>
-  <si>
-    <t>award_power2</t>
-  </si>
-  <si>
-    <t>award_power3</t>
-  </si>
-  <si>
-    <t>award_power4</t>
-  </si>
-  <si>
-    <t>power|权重</t>
-  </si>
-  <si>
-    <t>award|奖励倍率</t>
-  </si>
-  <si>
-    <t>show_power|显示的概率权重</t>
-  </si>
-  <si>
-    <t>name|名称</t>
-  </si>
-  <si>
-    <t>image|图片</t>
-  </si>
-  <si>
-    <t>particle|特效</t>
-  </si>
-  <si>
-    <t>|概率</t>
-  </si>
-  <si>
-    <t>大金猪</t>
-  </si>
-  <si>
-    <t>"jindan_Particle_H",6,4</t>
-  </si>
-  <si>
-    <t>中金猪</t>
-  </si>
-  <si>
-    <t>zjd_icon11</t>
-  </si>
-  <si>
-    <t>小金猪</t>
-  </si>
-  <si>
-    <t>zjd_icon10</t>
-  </si>
-  <si>
-    <t>玉如意</t>
-  </si>
-  <si>
-    <t>zjd_icon09</t>
-  </si>
-  <si>
-    <t>"jindan_Particle_M",2.25,0.15</t>
-  </si>
-  <si>
-    <t>红宝石</t>
-  </si>
-  <si>
-    <t>zjd_icon08</t>
-  </si>
-  <si>
-    <t>古钱</t>
-  </si>
-  <si>
-    <t>zjd_icon07</t>
-  </si>
-  <si>
-    <t>狮子</t>
-  </si>
-  <si>
-    <t>zjd_icon02</t>
-  </si>
-  <si>
-    <t>"jindan_Particle_L",1.25,0</t>
-  </si>
-  <si>
-    <t>熊猫</t>
-  </si>
-  <si>
-    <t>老鹰</t>
-  </si>
-  <si>
-    <t>铃铛</t>
-  </si>
-  <si>
-    <t>zjd_icon01</t>
-  </si>
-  <si>
-    <t>橙子</t>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>zjd_icon13</t>
-  </si>
-  <si>
-    <t>skill_id|技能id</t>
-  </si>
-  <si>
-    <t>skill_name|技能名称</t>
-  </si>
-  <si>
-    <t>show_condition|转换的条件,&gt;=n就可以转换</t>
-  </si>
-  <si>
-    <t>show_rate|转换概率</t>
-  </si>
-  <si>
-    <t>一网打尽</t>
-  </si>
-  <si>
-    <t>天女散花</t>
-  </si>
-  <si>
-    <t>大锤子</t>
-  </si>
-  <si>
-    <t>免费n次</t>
+    <t>award_power|奖励的table</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>auto_select_max_money|</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动选择锤子的钱上限</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_power|奖励的table</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg_open_rate|蛋碎率,%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_mode_power</t>
+  </si>
+  <si>
+    <t>award_power1</t>
+  </si>
+  <si>
+    <t>award_power2</t>
+  </si>
+  <si>
+    <t>award_power3</t>
+  </si>
+  <si>
+    <t>award_power4</t>
+  </si>
+  <si>
+    <t>power|权重</t>
+  </si>
+  <si>
+    <t>award|奖励倍率</t>
+  </si>
+  <si>
+    <t>show_power|显示的概率权重</t>
+  </si>
+  <si>
+    <t>name|名称</t>
+  </si>
+  <si>
+    <t>image_normal|图片</t>
+  </si>
+  <si>
+    <t>image|图片</t>
+  </si>
+  <si>
+    <t>particle|特效</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>show_time</t>
     </r>
     <r>
@@ -211,67 +115,152 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|奖励展示时间</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>fade_time|奖励消失时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>|概率</t>
+  </si>
+  <si>
+    <t>大金猪</t>
+  </si>
+  <si>
+    <t>zjd_icon12</t>
+  </si>
+  <si>
+    <t>zjd_icon20</t>
+  </si>
+  <si>
+    <t>"jindan_Particle_H",6,4</t>
+  </si>
+  <si>
+    <t>中金猪</t>
+  </si>
+  <si>
+    <t>zjd_icon11</t>
+  </si>
+  <si>
+    <t>小金猪</t>
+  </si>
+  <si>
+    <t>zjd_icon10</t>
+  </si>
+  <si>
+    <t>玉如意</t>
+  </si>
+  <si>
+    <t>zjd_icon09</t>
+  </si>
+  <si>
+    <t>"jindan_Particle_M",2.25,0.15</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>zjd_icon08</t>
+  </si>
+  <si>
+    <t>古钱</t>
+  </si>
+  <si>
+    <t>zjd_icon07</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t>zjd_icon02</t>
+  </si>
+  <si>
+    <t>"jindan_Particle_L",1.25,0</t>
+  </si>
+  <si>
+    <t>熊猫</t>
+  </si>
+  <si>
+    <t>老鹰</t>
+  </si>
+  <si>
+    <t>铃铛</t>
+  </si>
+  <si>
+    <t>zjd_icon01</t>
+  </si>
+  <si>
+    <t>橙子</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>zjd_icon13</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mode|模式：普通或财神</t>
+  </si>
+  <si>
+    <t>start_time|开始时间</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+  </si>
+  <si>
+    <t>over_time|领奖结束时间</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>caishen</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode|模式：普通或财神</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>over_time|领奖结束时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_mode_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_normal|图片</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zjd_icon12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zjd_icon20</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id|技能id</t>
+  </si>
+  <si>
+    <t>skill_name|技能名称</t>
+  </si>
+  <si>
+    <t>show_condition|转换的条件,&gt;=n就可以转换</t>
+  </si>
+  <si>
+    <t>show_rate|转换概率</t>
+  </si>
+  <si>
+    <t>一网打尽</t>
+  </si>
+  <si>
+    <t>天女散花</t>
+  </si>
+  <si>
+    <t>大锤子</t>
+  </si>
+  <si>
+    <t>免费n次</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,72 +272,19 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF191F25"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF191F25"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="7"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,37 +292,172 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191F25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF191F25"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7"/>
+      <color rgb="FF191F25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,18 +472,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -435,16 +692,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -456,57 +947,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="48">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="47"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,22 +1292,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="21.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="29.75" style="4" customWidth="1"/>
     <col min="5" max="7" width="41.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.625" customWidth="1"/>
@@ -787,7 +1315,7 @@
     <col min="10" max="10" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,36 +1328,36 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>51</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>2000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>4000</v>
       </c>
       <c r="E2" s="4">
@@ -842,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2" s="4">
         <v>200000</v>
@@ -855,13 +1383,13 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>20000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>40000</v>
       </c>
       <c r="E3" s="4">
@@ -874,7 +1402,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4">
         <v>2000000</v>
@@ -887,13 +1415,13 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>100000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>200000</v>
       </c>
       <c r="E4" s="4">
@@ -906,7 +1434,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I4" s="4">
         <v>10000000</v>
@@ -919,13 +1447,13 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>1000000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>2000000</v>
       </c>
       <c r="E5" s="4">
@@ -938,9 +1466,9 @@
         <v>50</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13">
+        <v>13</v>
+      </c>
+      <c r="I5" s="15">
         <v>-1</v>
       </c>
       <c r="J5" s="4">
@@ -948,75 +1476,71 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="5" customWidth="1"/>
-    <col min="3" max="4" width="31.125" style="5" customWidth="1"/>
-    <col min="5" max="7" width="27.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="47.75" style="5" customWidth="1"/>
-    <col min="9" max="10" width="12.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="54.375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="35" style="5" customWidth="1"/>
-    <col min="14" max="14" width="108.375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="5"/>
+    <col min="1" max="1" width="13.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="8" customWidth="1"/>
+    <col min="3" max="4" width="31.125" style="8" customWidth="1"/>
+    <col min="5" max="7" width="27.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="8" customWidth="1"/>
+    <col min="9" max="10" width="12.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="54.375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="35" style="8" customWidth="1"/>
+    <col min="14" max="14" width="108.375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1">
+    <row r="1" ht="32.25" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1024,7 +1548,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="43.5" customHeight="1">
+    <row r="2" ht="43.5" customHeight="1" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1038,31 +1562,31 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>0.3</v>
       </c>
-      <c r="K2" s="8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" ht="43.5" customHeight="1">
+      <c r="K2" s="11">
+        <v>0.005</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" ht="43.5" customHeight="1" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1076,29 +1600,29 @@
       <c r="D3" s="2">
         <v>2000</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>0.3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>0.02</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" ht="43.5" customHeight="1">
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" ht="43.5" customHeight="1" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1112,29 +1636,29 @@
       <c r="D4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="10">
         <v>0.4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>0.3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>0.04</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" ht="43.5" customHeight="1">
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" ht="43.5" customHeight="1" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1148,29 +1672,29 @@
       <c r="D5" s="2">
         <v>1000</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10">
         <v>0.4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>0.3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>0.05</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="25.5" customHeight="1">
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" ht="25.5" customHeight="1" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1184,27 +1708,27 @@
       <c r="D6" s="2">
         <v>1000</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10">
         <v>0.4</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="10">
         <v>0.3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="11">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
+    <row r="7" ht="21" customHeight="1" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1218,27 +1742,27 @@
       <c r="D7" s="2">
         <v>500</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10">
         <v>0.4</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="10">
         <v>0.3</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18">
+    <row r="8" ht="18.75" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1252,27 +1776,27 @@
       <c r="D8" s="2">
         <v>400</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="10">
         <v>0.4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="10">
         <v>0.3</v>
       </c>
-      <c r="K8" s="8">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18">
+      <c r="K8" s="11">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1286,28 +1810,28 @@
       <c r="D9" s="2">
         <v>300</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10">
         <v>0.4</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="10">
         <v>0.3</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="11">
         <f t="shared" ref="K9:K13" si="1">K8</f>
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1321,28 +1845,28 @@
       <c r="D10" s="2">
         <v>200</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10">
         <v>0.4</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="10">
         <v>0.3</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <f>K8</f>
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1356,27 +1880,27 @@
       <c r="D11" s="2">
         <v>200</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="10">
         <v>0.4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="10">
         <v>0.3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18">
+    <row r="12" ht="18.75" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1390,28 +1914,28 @@
       <c r="D12" s="2">
         <v>100</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10">
         <v>0.4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="10">
         <v>0.3</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18">
+    <row r="13" ht="18.75" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1425,34 +1949,34 @@
       <c r="D13" s="2">
         <v>100</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="10">
         <v>0.4</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="10">
         <v>0.3</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="11">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75">
+    <row r="14" ht="18.75" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>2560.0000000000014</v>
+        <v>2560</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1460,46 +1984,42 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7">
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
         <v>0.4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="10">
         <v>0.3</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <f>(1-SUM(K2:K13))</f>
-        <v>0.25600000000000012</v>
+        <v>0.256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="4" width="17.375" customWidth="1"/>
@@ -1507,76 +2027,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1554339600</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1554911999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1555084799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1554339600</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1554911999</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1555084799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="C3" s="6">
         <v>1556499600</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="6">
         <v>1557071999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="6">
         <v>1557071999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="29.25" style="4" customWidth="1"/>
@@ -1584,21 +2100,21 @@
     <col min="5" max="5" width="35.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1609,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" s="4">
         <v>18</v>
@@ -1626,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -1643,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -1660,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
@@ -1670,778 +2186,696 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">C2*10000</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+        <v>0.0047</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>350.00000000000006</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>509.99999999999994</v>
+        <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C9" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C10" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C11" s="3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C12" s="3">
-        <f>C11</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" ht="15.75" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C13" s="3">
-        <f>C12</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1170.0000000000011</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="3">
-        <f>(1-SUM(C2:C13))</f>
-        <v>0.1170000000000001</v>
+        <v>0.1323</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">C2*10000</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+        <v>0.0047</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>350.00000000000006</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>509.99999999999994</v>
+        <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C9" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C10" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C11" s="3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C12" s="3">
-        <f>C11</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" ht="15.75" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C13" s="3">
-        <f>C12</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1170.0000000000011</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="3">
-        <f>(1-SUM(C2:C13))</f>
-        <v>0.1170000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
+        <v>0.1323</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="2:2">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">C2*10000</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+        <v>0.0047</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>350.00000000000006</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>509.99999999999994</v>
+        <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C9" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="C10" s="3">
-        <f>C8</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C11" s="3">
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C12" s="3">
-        <f>C11</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" ht="15.75" spans="1:3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C13" s="3">
-        <f>C12</f>
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" ht="15.75" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1170.0000000000011</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="3">
-        <f>(1-SUM(C2:C13))</f>
-        <v>0.1170000000000001</v>
+        <v>0.1323</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27">
+    <row r="1" ht="27" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B14" si="0">C2*10000</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.0047</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" ht="15.75" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>350.00000000000006</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>0.034</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" ht="15.75" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" ht="15.75" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>709.99999999999989</v>
+        <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>0.069</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" ht="15.75" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" ht="15.75" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="C9" s="3">
-        <f>C8</f>
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" ht="15.75" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="C10" s="3">
-        <f>C8</f>
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" ht="15.75" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C11" s="3">
@@ -2451,62 +2885,51 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" ht="15.75" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C12" s="3">
-        <f>C11</f>
         <v>0.123</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" ht="15.75" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
         <v>1230</v>
       </c>
       <c r="C13" s="3">
-        <f>C12</f>
         <v>0.123</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" ht="15.75" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1260.0000000000011</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="3">
-        <f>(1-SUM(C2:C13))</f>
-        <v>0.12600000000000011</v>
+        <v>0.1323</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/zajindan_service.xlsx
+++ b/config_Release/zajindan_service.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="793" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="793"/>
   </bookViews>
   <sheets>
     <sheet name="hammer" sheetId="3" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="award_power3|奖励权重3" sheetId="7" r:id="rId7"/>
     <sheet name="award_power4|奖励权重4" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -51,7 +56,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>auto_select_max_money|</t>
     </r>
@@ -59,6 +64,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自动选择锤子的钱上限</t>
@@ -106,6 +112,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>show_time</t>
@@ -115,6 +122,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|奖励展示时间</t>
@@ -253,14 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +274,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -285,6 +289,7 @@
       <sz val="11"/>
       <color theme="7"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,172 +297,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF191F25"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,198 +366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -692,250 +394,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,60 +447,18 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="47"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1292,19 +716,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
     <col min="2" max="3" width="21.75" style="8" customWidth="1"/>
@@ -1315,7 +739,7 @@
     <col min="10" max="10" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:10">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D2" s="8">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
@@ -1476,19 +900,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1508,7 +931,7 @@
     <col min="17" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:18">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +971,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="1:15">
+    <row r="2" spans="1:18" ht="43.5" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1581,12 +1004,12 @@
         <v>0.3</v>
       </c>
       <c r="K2" s="11">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1" spans="1:15">
+    <row r="3" spans="1:18" ht="43.5" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1622,7 +1045,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" ht="43.5" customHeight="1" spans="1:15">
+    <row r="4" spans="1:18" ht="43.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1658,7 +1081,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1" spans="1:15">
+    <row r="5" spans="1:18" ht="43.5" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1694,7 +1117,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:11">
+    <row r="6" spans="1:18" ht="25.5" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1728,7 +1151,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:11">
+    <row r="7" spans="1:18" ht="21" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1762,7 +1185,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:11">
+    <row r="8" spans="1:18" ht="18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1793,10 +1216,10 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="11">
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1828,10 +1251,10 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" ref="K9:K13" si="1">K8</f>
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1863,10 +1286,10 @@
       </c>
       <c r="K10" s="11">
         <f>K8</f>
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1900,7 +1323,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:11">
+    <row r="12" spans="1:18" ht="18">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1935,7 +1358,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:11">
+    <row r="13" spans="1:18" ht="18">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1970,13 +1393,13 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:11">
+    <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>2560.0000000000014</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2000,26 +1423,25 @@
       </c>
       <c r="K14" s="11">
         <f>(1-SUM(K2:K13))</f>
-        <v>0.256</v>
+        <v>0.25600000000000012</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="4" width="17.375" customWidth="1"/>
@@ -2078,21 +1500,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="29.25" style="4" customWidth="1"/>
@@ -2100,7 +1521,7 @@
     <col min="5" max="5" width="35.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,27 +1607,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +1637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2225,10 +1645,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0047</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2236,10 +1656,10 @@
         <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2247,10 +1667,10 @@
         <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2258,10 +1678,10 @@
         <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2269,10 +1689,10 @@
         <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2280,10 +1700,10 @@
         <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>0.069</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2291,10 +1711,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2302,10 +1722,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2313,10 +1733,10 @@
         <v>880</v>
       </c>
       <c r="C10" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2327,7 +1747,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2338,7 +1758,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2349,7 +1769,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:3">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2361,27 +1781,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2392,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2400,10 +1819,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0047</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2411,10 +1830,10 @@
         <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2422,10 +1841,10 @@
         <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2433,10 +1852,10 @@
         <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2444,10 +1863,10 @@
         <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2455,10 +1874,10 @@
         <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>0.069</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2466,10 +1885,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2477,10 +1896,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2488,10 +1907,10 @@
         <v>880</v>
       </c>
       <c r="C10" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2502,7 +1921,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2513,7 +1932,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2524,7 +1943,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:3">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2535,30 +1954,29 @@
         <v>0.1323</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:2">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +1987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2577,10 +1995,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0047</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2588,10 +2006,10 @@
         <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2599,10 +2017,10 @@
         <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2610,10 +2028,10 @@
         <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2621,10 +2039,10 @@
         <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2632,10 +2050,10 @@
         <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>0.069</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2643,10 +2061,10 @@
         <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2654,10 +2072,10 @@
         <v>880</v>
       </c>
       <c r="C9" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2665,10 +2083,10 @@
         <v>880</v>
       </c>
       <c r="C10" s="3">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2679,7 +2097,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:3">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2690,7 +2108,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:3">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2701,7 +2119,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:3">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2713,28 +2131,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:6" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +2162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2753,13 +2170,13 @@
         <v>47</v>
       </c>
       <c r="C2" s="3">
-        <v>0.0047</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15.75" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2767,13 +2184,13 @@
         <v>190</v>
       </c>
       <c r="C3" s="3">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2781,13 +2198,13 @@
         <v>340</v>
       </c>
       <c r="C4" s="3">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="15.75" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2795,13 +2212,13 @@
         <v>490</v>
       </c>
       <c r="C5" s="3">
-        <v>0.049</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="15.75" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2809,13 +2226,13 @@
         <v>590</v>
       </c>
       <c r="C6" s="3">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="15.75" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2823,13 +2240,13 @@
         <v>690</v>
       </c>
       <c r="C7" s="3">
-        <v>0.069</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="15.75" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2837,13 +2254,13 @@
         <v>880</v>
       </c>
       <c r="C8" s="3">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="15.75" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2851,13 +2268,13 @@
         <v>880</v>
       </c>
       <c r="C9" s="3">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="15.75" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2865,13 +2282,13 @@
         <v>880</v>
       </c>
       <c r="C10" s="3">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2885,7 +2302,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2899,7 +2316,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2913,7 +2330,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2928,8 +2345,8 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>